--- a/기록용/test.xlsx
+++ b/기록용/test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:S3"/>
+  <dimension ref="A2:S83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,99 +436,43 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>날짜</t>
+          <t>20210128</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>종목</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>일일외인순매수</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>일일기관순매수</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>일일외인기관순매수</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>당일시가</t>
-        </is>
+          <t>NAVER</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>6653</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>8548</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>15201</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>362000</v>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>당일전일대비등락률</t>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>명일전일대비등락률</t>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>명일고가등락률</t>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>명일</t>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t>명일시가</t>
-        </is>
-      </c>
-      <c r="L2" s="1" t="inlineStr">
-        <is>
-          <t>up3%날짜</t>
-        </is>
-      </c>
-      <c r="M2" s="1" t="inlineStr">
-        <is>
-          <t>up3%걸린시간</t>
-        </is>
-      </c>
-      <c r="N2" s="1" t="inlineStr">
-        <is>
-          <t>up3%perscent</t>
-        </is>
-      </c>
-      <c r="O2" s="1" t="inlineStr">
-        <is>
-          <t>up3%price</t>
-        </is>
-      </c>
-      <c r="P2" s="1" t="inlineStr">
-        <is>
-          <t>up9%날짜</t>
-        </is>
-      </c>
-      <c r="Q2" s="1" t="inlineStr">
-        <is>
-          <t>up9%걸린시간</t>
-        </is>
-      </c>
-      <c r="R2" s="1" t="inlineStr">
-        <is>
-          <t>up9%percent</t>
-        </is>
-      </c>
-      <c r="S2" s="1" t="inlineStr">
-        <is>
-          <t>up9%price</t>
-        </is>
-      </c>
+          <t>-3.38</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr"/>
+      <c r="I2" s="1" t="inlineStr"/>
+      <c r="J2" s="1" t="inlineStr"/>
+      <c r="K2" s="1" t="inlineStr"/>
+      <c r="L2" s="1" t="inlineStr"/>
+      <c r="M2" s="1" t="inlineStr"/>
+      <c r="N2" s="1" t="inlineStr"/>
+      <c r="O2" s="1" t="inlineStr"/>
+      <c r="P2" s="1" t="inlineStr"/>
+      <c r="Q2" s="1" t="inlineStr"/>
+      <c r="R2" s="1" t="inlineStr"/>
+      <c r="S2" s="1" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -538,38 +482,4235 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>KT&amp;G</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3156</v>
+      </c>
+      <c r="D3" t="n">
+        <v>415</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3571</v>
+      </c>
+      <c r="F3" t="n">
+        <v>81500</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>-1.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>20210128</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>넷마블</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1910</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1493</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3403</v>
+      </c>
+      <c r="F4" t="n">
+        <v>136500</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-2.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>20210128</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>네패스</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>547</v>
+      </c>
+      <c r="D5" t="n">
+        <v>569</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1116</v>
+      </c>
+      <c r="F5" t="n">
+        <v>47500</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-5.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>20210128</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>대우건설</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>419</v>
+      </c>
+      <c r="D6" t="n">
+        <v>592</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1011</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6390</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-6.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>20210127</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>빅히트</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>36086</v>
+      </c>
+      <c r="D7" t="n">
+        <v>875</v>
+      </c>
+      <c r="E7" t="n">
+        <v>36961</v>
+      </c>
+      <c r="F7" t="n">
+        <v>208000</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-1.43</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>+6.02</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>20210128</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>213000</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>20210128</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>225000</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>20210127</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>삼성바이오로직스</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>19340</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6497</v>
+      </c>
+      <c r="E8" t="n">
+        <v>25837</v>
+      </c>
+      <c r="F8" t="n">
+        <v>829000</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>+5.86</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-1.30</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>20210128</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>830000</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>20210128</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>20210127</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>카카오</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>9026</v>
+      </c>
+      <c r="D9" t="n">
+        <v>641</v>
+      </c>
+      <c r="E9" t="n">
+        <v>9667</v>
+      </c>
+      <c r="F9" t="n">
+        <v>463000</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>+0.87</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>-1.51</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>20210128</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>454000</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>20210128</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>468500</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>20210127</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>한미약품</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>4083</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1109</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5192</v>
+      </c>
+      <c r="F10" t="n">
+        <v>376500</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>+7.14</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>+3.33</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>20210128</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>402500</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>20210128</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>418500</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>20210127</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>엔씨소프트</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1738</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1044</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2782</v>
+      </c>
+      <c r="F11" t="n">
+        <v>963000</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>+2.62</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>-1.02</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>20210128</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>960000</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>20210128</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>20210127</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>엘앤에프</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1349</v>
+      </c>
+      <c r="D12" t="n">
+        <v>398</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1747</v>
+      </c>
+      <c r="F12" t="n">
+        <v>79200</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>+2.66</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>-4.81</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>20210128</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>79000</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>20210128</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>20210127</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>한미사이언스</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1214</v>
+      </c>
+      <c r="D13" t="n">
+        <v>446</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1660</v>
+      </c>
+      <c r="F13" t="n">
+        <v>80300</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>+3.73</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>+2.04</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>20210128</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>82000</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>20210128</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>85200</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>20210127</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>대한유화</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1111</v>
+      </c>
+      <c r="D14" t="n">
+        <v>494</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1605</v>
+      </c>
+      <c r="F14" t="n">
+        <v>280000</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>+5.47</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>+3.29</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>20210128</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>280000</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>20210128</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>309000</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>10.36</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>20210127</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>기아차</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>974</v>
+      </c>
+      <c r="D15" t="n">
+        <v>11463</v>
+      </c>
+      <c r="E15" t="n">
+        <v>12437</v>
+      </c>
+      <c r="F15" t="n">
+        <v>89500</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>+0.33</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>-2.00</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>20210128</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>87400</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>20210128</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>91900</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>20210127</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>삼성에스디에스</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>950</v>
+      </c>
+      <c r="D16" t="n">
+        <v>776</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1726</v>
+      </c>
+      <c r="F16" t="n">
+        <v>203500</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>+4.69</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>-1.89</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>20210128</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>207000</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>20210128</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>20210126</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SK케미칼</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>5337</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1078</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6415</v>
+      </c>
+      <c r="F17" t="n">
+        <v>424500</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>+6.16</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>-6.14</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>20210127</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>434000</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>20210127</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>20210126</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>녹십자</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>4166</v>
+      </c>
+      <c r="D18" t="n">
+        <v>735</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4901</v>
+      </c>
+      <c r="F18" t="n">
+        <v>453500</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>+9.31</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>-3.17</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>20210127</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>497500</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>20210127</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>521000</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>20210126</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>솔브레인</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2172</v>
+      </c>
+      <c r="D19" t="n">
+        <v>570</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2742</v>
+      </c>
+      <c r="F19" t="n">
+        <v>287500</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>+6.38</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>-4.63</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>20210127</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>301100</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>20210127</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>20210126</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>덕산네오룩스</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1227</v>
+      </c>
+      <c r="D20" t="n">
+        <v>249</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1476</v>
+      </c>
+      <c r="F20" t="n">
+        <v>34350</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>+8.11</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>+0.41</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>20210127</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>36350</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>20210127</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>37450</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20210126</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>LG이노텍</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>801</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2809</v>
+      </c>
+      <c r="F21" t="n">
+        <v>221000</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>+6.65</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>-2.00</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>20210127</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>225500</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>20210127</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>20210126</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>비에이치</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>448</v>
+      </c>
+      <c r="D22" t="n">
+        <v>331</v>
+      </c>
+      <c r="E22" t="n">
+        <v>779</v>
+      </c>
+      <c r="F22" t="n">
+        <v>23200</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>+6.54</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>-3.07</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>20210127</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>24600</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>20210127</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>20210125</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>15464</v>
+      </c>
+      <c r="D23" t="n">
+        <v>26733</v>
+      </c>
+      <c r="E23" t="n">
+        <v>42197</v>
+      </c>
+      <c r="F23" t="n">
+        <v>87000</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>+3.00</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>-3.02</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>20210126</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>88800</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>20210126</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>20210125</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>SK하이닉스</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>11974</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4215</v>
+      </c>
+      <c r="E24" t="n">
+        <v>16189</v>
+      </c>
+      <c r="F24" t="n">
+        <v>130000</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>+5.06</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>-4.44</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>20210126</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>134000</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>20210126</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>20210125</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>LG생활건강</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>7893</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1551</v>
+      </c>
+      <c r="E25" t="n">
+        <v>9444</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1584000</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>+7.30</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>-2.98</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>20210126</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1692000</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>20210126</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>20210125</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>SK이노베이션</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2673</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2049</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4722</v>
+      </c>
+      <c r="F26" t="n">
+        <v>277500</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>+3.06</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>+0.35</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>20210126</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>289500</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>20210126</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>298500</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>20210125</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
           <t>NAVER</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>6653</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8548</v>
-      </c>
-      <c r="E3" t="n">
-        <v>15201</v>
-      </c>
-      <c r="F3" t="n">
-        <v>362000</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>-3.38</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
+      <c r="C27" t="n">
+        <v>1358</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2434</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3792</v>
+      </c>
+      <c r="F27" t="n">
+        <v>349000</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>+1.60</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>-2.01</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>20210126</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>350500</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>20210126</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>20210125</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1207</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2995</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4202</v>
+      </c>
+      <c r="F28" t="n">
+        <v>327500</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>+8.23</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>-4.23</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>20210126</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>358500</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>20210126</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>20210125</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>현대글로비스</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1072</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1821</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2893</v>
+      </c>
+      <c r="F29" t="n">
+        <v>208500</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>+7.82</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>-4.40</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>20210126</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>227500</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>20210126</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>20210125</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>한미약품</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>924</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1462</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2386</v>
+      </c>
+      <c r="F30" t="n">
+        <v>370000</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>+5.80</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>-1.31</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>20210126</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>384000</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>20210126</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>20210121</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>NAVER</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>14676</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2492</v>
+      </c>
+      <c r="E31" t="n">
+        <v>17168</v>
+      </c>
+      <c r="F31" t="n">
+        <v>316500</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>+4.71</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>+6.51</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>20210122</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>332000</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>20210122</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>350000</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>20210121</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>현대차</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>8616</v>
+      </c>
+      <c r="D32" t="n">
+        <v>650</v>
+      </c>
+      <c r="E32" t="n">
+        <v>9266</v>
+      </c>
+      <c r="F32" t="n">
+        <v>264000</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>+2.12</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>-2.84</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>20210122</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>261000</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>20210122</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>20210121</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>SK케미칼</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>6132</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2274</v>
+      </c>
+      <c r="E33" t="n">
+        <v>8406</v>
+      </c>
+      <c r="F33" t="n">
+        <v>412000</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>+6.21</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>-2.03</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>20210122</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>424500</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>20210122</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>20210121</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>현대글로비스</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>4314</v>
+      </c>
+      <c r="D34" t="n">
+        <v>5397</v>
+      </c>
+      <c r="E34" t="n">
+        <v>9711</v>
+      </c>
+      <c r="F34" t="n">
+        <v>190000</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>+17.55</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>-4.52</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>20210122</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>216500</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>20210122</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>20210121</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>만도</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>2322</v>
+      </c>
+      <c r="D35" t="n">
+        <v>554</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2876</v>
+      </c>
+      <c r="F35" t="n">
+        <v>76000</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>+7.10</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>-2.50</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>20210122</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>80100</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>20210122</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>20210121</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>카카오</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1377</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3131</v>
+      </c>
+      <c r="E36" t="n">
+        <v>4508</v>
+      </c>
+      <c r="F36" t="n">
+        <v>452500</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>+2.25</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>+1.98</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>20210122</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>456000</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>20210122</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>476000</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>20210121</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>포스코인터내셔널</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1332</v>
+      </c>
+      <c r="D37" t="n">
+        <v>727</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2059</v>
+      </c>
+      <c r="F37" t="n">
+        <v>15500</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>+12.79</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>-5.81</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>20210122</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>20210122</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>20210120</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>SK케미칼</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>3996</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1320</v>
+      </c>
+      <c r="E38" t="n">
+        <v>5316</v>
+      </c>
+      <c r="F38" t="n">
+        <v>398000</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>+0.64</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>+6.21</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>20210121</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>412000</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>20210121</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>20210120</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>LG이노텍</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>2226</v>
+      </c>
+      <c r="D39" t="n">
+        <v>4623</v>
+      </c>
+      <c r="E39" t="n">
+        <v>6849</v>
+      </c>
+      <c r="F39" t="n">
+        <v>192000</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>+8.75</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>+0.24</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>20210121</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>205000</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>20210121</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>20210120</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>JYP Ent.</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1769</v>
+      </c>
+      <c r="D40" t="n">
+        <v>810</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2579</v>
+      </c>
+      <c r="F40" t="n">
+        <v>36700</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>+5.48</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>-1.69</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>20210121</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>38600</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>20210121</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>20210120</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1129</v>
+      </c>
+      <c r="D41" t="n">
+        <v>6394</v>
+      </c>
+      <c r="E41" t="n">
+        <v>7523</v>
+      </c>
+      <c r="F41" t="n">
+        <v>318000</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>+8.09</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>+2.25</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>20210121</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>336500</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>20210121</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>20210120</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>피에스케이</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1029</v>
+      </c>
+      <c r="D42" t="n">
+        <v>661</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1690</v>
+      </c>
+      <c r="F42" t="n">
+        <v>39000</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>+7.28</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>-2.35</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>20210121</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>40500</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>20210121</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>20210119</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>13630</v>
+      </c>
+      <c r="D43" t="n">
+        <v>9552</v>
+      </c>
+      <c r="E43" t="n">
+        <v>23182</v>
+      </c>
+      <c r="F43" t="n">
+        <v>84500</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>+2.35</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>+0.23</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>20210120</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>89000</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>20210120</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>20210119</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>현대차</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>8758</v>
+      </c>
+      <c r="D44" t="n">
+        <v>5509</v>
+      </c>
+      <c r="E44" t="n">
+        <v>14267</v>
+      </c>
+      <c r="F44" t="n">
+        <v>244000</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>+8.51</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>-0.96</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>20210120</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>271000</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>20210120</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>20210119</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>6336</v>
+      </c>
+      <c r="D45" t="n">
+        <v>6420</v>
+      </c>
+      <c r="E45" t="n">
+        <v>12756</v>
+      </c>
+      <c r="F45" t="n">
+        <v>140000</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>+6.47</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>+12.84</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>12.46</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>20210120</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>148500</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>20210120</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>12.46</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>167000</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>12.46</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>20210119</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>기아차</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>6158</v>
+      </c>
+      <c r="D46" t="n">
+        <v>11294</v>
+      </c>
+      <c r="E46" t="n">
+        <v>17452</v>
+      </c>
+      <c r="F46" t="n">
+        <v>73000</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>+16.64</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>+5.04</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>20210120</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>96000</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>20210120</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>99500</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>20210119</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>SK케미칼</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>2645</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1384</v>
+      </c>
+      <c r="E47" t="n">
+        <v>4029</v>
+      </c>
+      <c r="F47" t="n">
+        <v>382000</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>+4.26</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>+0.64</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>20210120</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>398000</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>20210120</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>20210119</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>현대모비스</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1975</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2857</v>
+      </c>
+      <c r="E48" t="n">
+        <v>4832</v>
+      </c>
+      <c r="F48" t="n">
+        <v>328000</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>+6.65</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>-0.87</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>20210120</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>365000</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>20210120</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>20210119</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>엔씨소프트</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1833</v>
+      </c>
+      <c r="D49" t="n">
+        <v>964</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2797</v>
+      </c>
+      <c r="F49" t="n">
+        <v>949000</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>+2.03</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>+0.84</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>20210120</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>969000</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>20210120</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>20210119</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>카카오</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>1565</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2397</v>
+      </c>
+      <c r="E50" t="n">
+        <v>3962</v>
+      </c>
+      <c r="F50" t="n">
+        <v>428000</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>+2.92</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>+0.91</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>20210120</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>448000</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>20210120</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>20210119</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>삼성SDI</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1527</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1032</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2559</v>
+      </c>
+      <c r="F51" t="n">
+        <v>706000</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>+3.68</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>+1.64</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>20210120</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>753000</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>20210120</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>20210119</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>삼성전기</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1253</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2403</v>
+      </c>
+      <c r="E52" t="n">
+        <v>3656</v>
+      </c>
+      <c r="F52" t="n">
+        <v>198500</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>+4.81</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>+1.21</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>20210120</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>214000</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>20210120</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>20210119</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>녹십자</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1048</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1253</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2301</v>
+      </c>
+      <c r="F53" t="n">
+        <v>405500</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>+4.23</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>-0.84</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>20210120</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>413000</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>20210120</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>20210118</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>SK케미칼</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1719</v>
+      </c>
+      <c r="D54" t="n">
+        <v>763</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2482</v>
+      </c>
+      <c r="F54" t="n">
+        <v>353500</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>+7.58</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>+4.26</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>20210119</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>382000</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>20210119</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>393500</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>20210118</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>GS건설</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>764</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1184</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1948</v>
+      </c>
+      <c r="F55" t="n">
+        <v>41100</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>+2.86</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>+3.25</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>20210119</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>44200</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>20210119</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>20210118</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>SK하이닉스</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>730</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2401</v>
+      </c>
+      <c r="E56" t="n">
+        <v>3131</v>
+      </c>
+      <c r="F56" t="n">
+        <v>126000</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>+1.96</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>+0.38</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>20210119</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>131000</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>20210119</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>20210118</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>675</v>
+      </c>
+      <c r="D57" t="n">
+        <v>432</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1107</v>
+      </c>
+      <c r="F57" t="n">
+        <v>298500</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>-0.83</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>+3.00</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>20210119</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>300000</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>20210119</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>310000</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>20210114</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>2870</v>
+      </c>
+      <c r="D58" t="n">
+        <v>7584</v>
+      </c>
+      <c r="E58" t="n">
+        <v>10454</v>
+      </c>
+      <c r="F58" t="n">
+        <v>138500</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>+5.00</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>-4.76</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>20210115</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>145500</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>20210115</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>20210114</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>LG디스플레이</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>2400</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2239</v>
+      </c>
+      <c r="E59" t="n">
+        <v>4639</v>
+      </c>
+      <c r="F59" t="n">
+        <v>20250</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>+5.13</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>-2.09</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>20210115</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>21850</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>20210115</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>20210114</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>엘앤에프</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>1602</v>
+      </c>
+      <c r="D60" t="n">
+        <v>741</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2343</v>
+      </c>
+      <c r="F60" t="n">
+        <v>75000</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>+6.28</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>+4.15</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>7.81</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>20210115</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>79400</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>20210115</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>7.81</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>85600</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>20210114</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>에코프로비엠</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>1326</v>
+      </c>
+      <c r="D61" t="n">
+        <v>778</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2104</v>
+      </c>
+      <c r="F61" t="n">
+        <v>192000</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>+5.05</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>-2.08</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>20210115</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>198100</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>20210115</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>20210114</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>녹십자</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>1206</v>
+      </c>
+      <c r="D62" t="n">
+        <v>509</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1715</v>
+      </c>
+      <c r="F62" t="n">
+        <v>387500</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>+5.43</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>+1.96</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>20210115</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>410000</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>20210115</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>433500</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>20210114</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>금호석유</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>1036</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1028</v>
+      </c>
+      <c r="E63" t="n">
+        <v>2064</v>
+      </c>
+      <c r="F63" t="n">
+        <v>163500</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>+5.85</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>-2.91</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>20210115</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>175000</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>20210115</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>20210113</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>NAVER</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>9095</v>
+      </c>
+      <c r="D64" t="n">
+        <v>3933</v>
+      </c>
+      <c r="E64" t="n">
+        <v>13028</v>
+      </c>
+      <c r="F64" t="n">
+        <v>306000</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>+3.29</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>+1.27</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>20210114</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>318500</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>20210114</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>20210113</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>신한지주</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>5736</v>
+      </c>
+      <c r="D65" t="n">
+        <v>548</v>
+      </c>
+      <c r="E65" t="n">
+        <v>6284</v>
+      </c>
+      <c r="F65" t="n">
+        <v>33700</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>+3.32</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>-0.44</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>20210114</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>34300</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>20210114</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>20210113</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>3360</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1280</v>
+      </c>
+      <c r="E66" t="n">
+        <v>4640</v>
+      </c>
+      <c r="F66" t="n">
+        <v>293500</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>+5.33</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>+3.20</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>20210114</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>299000</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>20210114</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>310000</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>20210113</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>대한항공</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>1910</v>
+      </c>
+      <c r="D67" t="n">
+        <v>979</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2889</v>
+      </c>
+      <c r="F67" t="n">
+        <v>29900</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>+3.40</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>+7.55</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>20210114</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>30900</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>20210114</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>33000</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>20210113</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>아모레퍼시픽</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>1811</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1675</v>
+      </c>
+      <c r="E68" t="n">
+        <v>3486</v>
+      </c>
+      <c r="F68" t="n">
+        <v>206500</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>+4.19</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>+0.95</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>20210114</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>213000</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>20210114</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>20210113</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>한화솔루션</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>1754</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1027</v>
+      </c>
+      <c r="E69" t="n">
+        <v>2781</v>
+      </c>
+      <c r="F69" t="n">
+        <v>54200</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>+2.42</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>+0.91</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>20210114</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>55500</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>20210114</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>20210113</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>1704</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1619</v>
+      </c>
+      <c r="E70" t="n">
+        <v>3323</v>
+      </c>
+      <c r="F70" t="n">
+        <v>141000</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>+1.08</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>+5.00</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>8.66</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>20210114</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>138500</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>20210114</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>8.66</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>150500</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>20210113</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>우리금융지주</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>1680</v>
+      </c>
+      <c r="D71" t="n">
+        <v>977</v>
+      </c>
+      <c r="E71" t="n">
+        <v>2657</v>
+      </c>
+      <c r="F71" t="n">
+        <v>9840</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>+3.40</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>+0.50</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>20210114</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>10100</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>20210114</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>20210113</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>KB금융</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>1676</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1961</v>
+      </c>
+      <c r="E72" t="n">
+        <v>3637</v>
+      </c>
+      <c r="F72" t="n">
+        <v>46800</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>+2.38</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>-1.59</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>20210114</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>47500</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>20210114</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>20210113</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>S-Oil</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>1188</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1786</v>
+      </c>
+      <c r="E73" t="n">
+        <v>2974</v>
+      </c>
+      <c r="F73" t="n">
+        <v>77200</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>+4.26</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>-0.77</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>20210114</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>78300</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>20210114</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>20210112</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>롯데케미칼</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>3588</v>
+      </c>
+      <c r="D74" t="n">
+        <v>6223</v>
+      </c>
+      <c r="E74" t="n">
+        <v>9811</v>
+      </c>
+      <c r="F74" t="n">
+        <v>287500</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>+8.87</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>-1.28</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>3</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>20210113</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>317000</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>20210113</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>3</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>326500</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>20210112</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>BNK금융지주</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>1128</v>
+      </c>
+      <c r="D75" t="n">
+        <v>358</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1486</v>
+      </c>
+      <c r="F75" t="n">
+        <v>5760</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>+3.85</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>+1.52</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>20210113</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>20210113</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>20210112</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>CJ ENM</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>827</v>
+      </c>
+      <c r="D76" t="n">
+        <v>477</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1304</v>
+      </c>
+      <c r="F76" t="n">
+        <v>162100</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>+5.69</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>-0.36</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>20210113</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>170100</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>20210113</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>20210112</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>아프리카TV</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>782</v>
+      </c>
+      <c r="D77" t="n">
+        <v>333</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1115</v>
+      </c>
+      <c r="F77" t="n">
+        <v>61500</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>+7.53</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>+3.35</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>20210113</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>65100</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>20210113</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>70400</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>20210111</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>천보</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>1944</v>
+      </c>
+      <c r="D78" t="n">
+        <v>720</v>
+      </c>
+      <c r="E78" t="n">
+        <v>2664</v>
+      </c>
+      <c r="F78" t="n">
+        <v>201900</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>+5.59</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>-3.79</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>20210112</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>204800</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>20210112</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>20210111</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>웹젠</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>1151</v>
+      </c>
+      <c r="D79" t="n">
+        <v>271</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1422</v>
+      </c>
+      <c r="F79" t="n">
+        <v>36500</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>+6.81</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>+4.21</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>20210112</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>39600</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>20210112</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>41050</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>20210107</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>LG화학</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>9742</v>
+      </c>
+      <c r="D80" t="n">
+        <v>7462</v>
+      </c>
+      <c r="E80" t="n">
+        <v>17204</v>
+      </c>
+      <c r="F80" t="n">
+        <v>910000</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>+8.09</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>+3.85</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>20210108</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>989000</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>20210108</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>20210107</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>하나금융지주</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>6025</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1802</v>
+      </c>
+      <c r="E81" t="n">
+        <v>7827</v>
+      </c>
+      <c r="F81" t="n">
+        <v>36000</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>+5.90</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>+2.45</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>20210108</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>37100</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>20210108</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>20210107</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>롯데케미칼</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>4941</v>
+      </c>
+      <c r="D82" t="n">
+        <v>2337</v>
+      </c>
+      <c r="E82" t="n">
+        <v>7278</v>
+      </c>
+      <c r="F82" t="n">
+        <v>291000</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>+7.42</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>-0.99</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>20210108</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>306500</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>20210108</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>20210107</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>KB금융</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>4145</v>
+      </c>
+      <c r="D83" t="n">
+        <v>4958</v>
+      </c>
+      <c r="E83" t="n">
+        <v>9103</v>
+      </c>
+      <c r="F83" t="n">
+        <v>45550</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>+4.55</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>+1.09</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>20210108</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>46800</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>20210108</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
